--- a/templates/AutomationOrg/SYDATA-POtoPOAP Match_AutomationOrg.xlsx
+++ b/templates/AutomationOrg/SYDATA-POtoPOAP Match_AutomationOrg.xlsx
@@ -211,7 +211,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="81" x14ac:knownFonts="1">
+  <fonts count="105" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +230,150 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -714,7 +858,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -839,11 +983,47 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="106">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -924,8 +1104,32 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="76" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="77" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="78" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="80" fillId="0" borderId="39" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="79" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="80" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="81" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="82" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="83" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="84" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="85" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="86" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="87" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="88" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="89" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="44" fillId="0" fontId="90" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="91" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="45" fillId="0" fontId="92" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="93" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="94" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="95" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="96" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="97" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="48" fillId="0" fontId="98" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="99" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="49" fillId="0" fontId="100" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="101" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="50" fillId="0" fontId="102" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="104" fillId="0" borderId="51" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
